--- a/core/common/commonConfig/cActivity.xlsx
+++ b/core/common/commonConfig/cActivity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\shine\h1\develop\common\commonConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\shine\h2\develop\common\commonConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,6 +173,20 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
+          <t>见ActivityJoinConditionType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
           <t>0为无限</t>
         </r>
       </text>
@@ -182,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>描述</t>
   </si>
@@ -414,6 +428,17 @@
   </si>
   <si>
     <t>enableConditions</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效条件</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'xiao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidConditions</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -905,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
@@ -919,14 +944,14 @@
     <col min="4" max="5" width="16.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="20.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="9" max="11" width="20.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -943,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -971,20 +996,23 @@
       <c r="I2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1011,8 +1039,8 @@
       <c r="J3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>29</v>
+      <c r="K3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>29</v>
@@ -1020,8 +1048,11 @@
       <c r="M3" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1052,8 +1083,8 @@
       <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -1061,8 +1092,11 @@
       <c r="M4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1090,20 +1124,23 @@
       <c r="I5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1115,6 +1152,7 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1132,7 +1170,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -1177,7 +1215,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
